--- a/01 LEZIONE PRATICA W1D1/ESERCIZIO_M2-1-1_dati.xlsx
+++ b/01 LEZIONE PRATICA W1D1/ESERCIZIO_M2-1-1_dati.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lavoro\EPICODE\Esercitazioni\01 Lezione Pratica W1D1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lavoro\EPICODE\Esercitazioni\EPICODE_EXCEL_DATP0724\01 LEZIONE PRATICA W1D1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAB04BB-FB83-4873-8AFA-8908EE9B31B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DFA075-A1FE-49C6-ABA9-74BB69B93BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16485" yWindow="90" windowWidth="21960" windowHeight="15060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16335" yWindow="600" windowWidth="21960" windowHeight="15060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="581">
   <si>
     <t>MONITOR</t>
   </si>
@@ -1779,17 +1779,48 @@
   <si>
     <t>Esito</t>
   </si>
+  <si>
+    <t>numero fatture</t>
+  </si>
+  <si>
+    <t>totale fatturato</t>
+  </si>
+  <si>
+    <t>categorie</t>
+  </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>PUNTEGGI</t>
+  </si>
+  <si>
+    <t>ESITO</t>
+  </si>
+  <si>
+    <t>buono</t>
+  </si>
+  <si>
+    <t>discreto</t>
+  </si>
+  <si>
+    <t>sufficiente</t>
+  </si>
+  <si>
+    <t>respinto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-[$€]\ * #,##0.00_-;\-[$€]\ * #,##0.00_-;_-[$€]\ * &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="_-[$€-410]\ * #,##0.00_-;\-[$€-410]\ * #,##0.00_-;_-[$€-410]\ * &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1836,6 +1867,33 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1878,7 +1936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1894,7 +1952,7 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1906,7 +1964,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1965,7 +2028,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{69A453C7-2784-4688-A8FA-6266B6155C74}" name="Colonna1" dataDxfId="0">
-      <calculatedColumnFormula>VLOOKUP(10,$A$2:$B$8,2,0)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP(Table_1[[#This Row],[Column2]],$G$2:$H$5,2,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Giudizio-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -2179,7 +2242,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2241,8 +2304,8 @@
         <v>281000</v>
       </c>
       <c r="D2" s="5">
-        <f>IF(C2&lt;&gt;"",C2*20%,"")</f>
-        <v>56200</v>
+        <f>IF(C2&lt;&gt;"",C2*(1-1/(1+0.2)),"")</f>
+        <v>46833.333333333321</v>
       </c>
       <c r="E2" s="17" t="str">
         <f>_xlfn.CONCAT(A2," ",B2)</f>
@@ -2281,8 +2344,8 @@
         <v>323000</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D66" si="0">IF(C3&lt;&gt;"",C3*20%,"")</f>
-        <v>64600</v>
+        <f t="shared" ref="D3:D66" si="0">IF(C3&lt;&gt;"",C3*(1-1/(1+0.2)),"")</f>
+        <v>53833.333333333321</v>
       </c>
       <c r="E3" s="17" t="str">
         <f t="shared" ref="E3:E66" si="1">_xlfn.CONCAT(A3," ",B3)</f>
@@ -2322,7 +2385,7 @@
       </c>
       <c r="D4" s="5">
         <f t="shared" si="0"/>
-        <v>68800</v>
+        <v>57333.333333333321</v>
       </c>
       <c r="E4" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2362,7 +2425,7 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>72200</v>
+        <v>60166.66666666665</v>
       </c>
       <c r="E5" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2402,7 +2465,7 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>104200</v>
+        <v>86833.333333333314</v>
       </c>
       <c r="E6" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2442,7 +2505,7 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>105400</v>
+        <v>87833.333333333314</v>
       </c>
       <c r="E7" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2482,7 +2545,7 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>125200</v>
+        <v>104333.33333333331</v>
       </c>
       <c r="E8" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2522,7 +2585,7 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>131200</v>
+        <v>109333.33333333331</v>
       </c>
       <c r="E9" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2562,7 +2625,7 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>133200</v>
+        <v>110999.99999999997</v>
       </c>
       <c r="E10" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2602,7 +2665,7 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>176400</v>
+        <v>146999.99999999997</v>
       </c>
       <c r="E11" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2642,7 +2705,7 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>221600</v>
+        <v>184666.66666666663</v>
       </c>
       <c r="E12" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2682,7 +2745,7 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>263200</v>
+        <v>219333.33333333328</v>
       </c>
       <c r="E13" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2722,7 +2785,7 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="0"/>
-        <v>318800</v>
+        <v>265666.66666666663</v>
       </c>
       <c r="E14" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2762,7 +2825,7 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>543800</v>
+        <v>453166.66666666657</v>
       </c>
       <c r="E15" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2838,7 +2901,7 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" si="0"/>
-        <v>818400</v>
+        <v>681999.99999999988</v>
       </c>
       <c r="E17" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2878,7 +2941,7 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="0"/>
-        <v>2771800</v>
+        <v>2309833.333333333</v>
       </c>
       <c r="E18" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2954,7 +3017,7 @@
       </c>
       <c r="D20" s="5">
         <f t="shared" si="0"/>
-        <v>33400</v>
+        <v>27833.333333333328</v>
       </c>
       <c r="E20" s="17" t="str">
         <f t="shared" si="1"/>
@@ -2994,7 +3057,7 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="0"/>
-        <v>40400</v>
+        <v>33666.666666666657</v>
       </c>
       <c r="E21" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3034,7 +3097,7 @@
       </c>
       <c r="D22" s="5">
         <f t="shared" si="0"/>
-        <v>40600</v>
+        <v>33833.333333333328</v>
       </c>
       <c r="E22" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3074,7 +3137,7 @@
       </c>
       <c r="D23" s="5">
         <f t="shared" si="0"/>
-        <v>46800</v>
+        <v>38999.999999999993</v>
       </c>
       <c r="E23" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3114,7 +3177,7 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" si="0"/>
-        <v>50400</v>
+        <v>41999.999999999993</v>
       </c>
       <c r="E24" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3154,7 +3217,7 @@
       </c>
       <c r="D25" s="5">
         <f t="shared" si="0"/>
-        <v>51800</v>
+        <v>43166.666666666657</v>
       </c>
       <c r="E25" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3194,7 +3257,7 @@
       </c>
       <c r="D26" s="5">
         <f t="shared" si="0"/>
-        <v>53800</v>
+        <v>44833.333333333321</v>
       </c>
       <c r="E26" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3234,7 +3297,7 @@
       </c>
       <c r="D27" s="5">
         <f t="shared" si="0"/>
-        <v>54200</v>
+        <v>45166.666666666657</v>
       </c>
       <c r="E27" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3274,7 +3337,7 @@
       </c>
       <c r="D28" s="5">
         <f t="shared" si="0"/>
-        <v>58400</v>
+        <v>48666.666666666657</v>
       </c>
       <c r="E28" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3314,7 +3377,7 @@
       </c>
       <c r="D29" s="5">
         <f t="shared" si="0"/>
-        <v>58600</v>
+        <v>48833.333333333321</v>
       </c>
       <c r="E29" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3354,7 +3417,7 @@
       </c>
       <c r="D30" s="5">
         <f t="shared" si="0"/>
-        <v>61400</v>
+        <v>51166.666666666657</v>
       </c>
       <c r="E30" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3394,7 +3457,7 @@
       </c>
       <c r="D31" s="5">
         <f t="shared" si="0"/>
-        <v>88000</v>
+        <v>73333.333333333314</v>
       </c>
       <c r="E31" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3434,7 +3497,7 @@
       </c>
       <c r="D32" s="5">
         <f t="shared" si="0"/>
-        <v>97400</v>
+        <v>81166.666666666642</v>
       </c>
       <c r="E32" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3474,7 +3537,7 @@
       </c>
       <c r="D33" s="5">
         <f t="shared" si="0"/>
-        <v>113200</v>
+        <v>94333.333333333314</v>
       </c>
       <c r="E33" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3514,7 +3577,7 @@
       </c>
       <c r="D34" s="5">
         <f t="shared" si="0"/>
-        <v>160400</v>
+        <v>133666.66666666663</v>
       </c>
       <c r="E34" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3554,7 +3617,7 @@
       </c>
       <c r="D35" s="5">
         <f t="shared" si="0"/>
-        <v>315800</v>
+        <v>263166.66666666663</v>
       </c>
       <c r="E35" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3630,7 +3693,7 @@
       </c>
       <c r="D37" s="5">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>11666.666666666664</v>
       </c>
       <c r="E37" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3670,7 +3733,7 @@
       </c>
       <c r="D38" s="5">
         <f t="shared" si="0"/>
-        <v>20800</v>
+        <v>17333.333333333328</v>
       </c>
       <c r="E38" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3710,7 +3773,7 @@
       </c>
       <c r="D39" s="5">
         <f t="shared" si="0"/>
-        <v>25400</v>
+        <v>21166.666666666661</v>
       </c>
       <c r="E39" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3750,7 +3813,7 @@
       </c>
       <c r="D40" s="5">
         <f t="shared" si="0"/>
-        <v>32400</v>
+        <v>26999.999999999993</v>
       </c>
       <c r="E40" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3790,7 +3853,7 @@
       </c>
       <c r="D41" s="5">
         <f t="shared" si="0"/>
-        <v>35800</v>
+        <v>29833.333333333328</v>
       </c>
       <c r="E41" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3830,7 +3893,7 @@
       </c>
       <c r="D42" s="5">
         <f t="shared" si="0"/>
-        <v>37200</v>
+        <v>30999.999999999993</v>
       </c>
       <c r="E42" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3870,7 +3933,7 @@
       </c>
       <c r="D43" s="5">
         <f t="shared" si="0"/>
-        <v>37200</v>
+        <v>30999.999999999993</v>
       </c>
       <c r="E43" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3910,7 +3973,7 @@
       </c>
       <c r="D44" s="5">
         <f t="shared" si="0"/>
-        <v>40600</v>
+        <v>33833.333333333328</v>
       </c>
       <c r="E44" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3950,7 +4013,7 @@
       </c>
       <c r="D45" s="5">
         <f t="shared" si="0"/>
-        <v>42400</v>
+        <v>35333.333333333328</v>
       </c>
       <c r="E45" s="17" t="str">
         <f t="shared" si="1"/>
@@ -3990,7 +4053,7 @@
       </c>
       <c r="D46" s="5">
         <f t="shared" si="0"/>
-        <v>44400</v>
+        <v>36999.999999999993</v>
       </c>
       <c r="E46" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4030,7 +4093,7 @@
       </c>
       <c r="D47" s="5">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>40833.333333333321</v>
       </c>
       <c r="E47" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4070,7 +4133,7 @@
       </c>
       <c r="D48" s="5">
         <f t="shared" si="0"/>
-        <v>50200</v>
+        <v>41833.333333333321</v>
       </c>
       <c r="E48" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4110,7 +4173,7 @@
       </c>
       <c r="D49" s="5">
         <f t="shared" si="0"/>
-        <v>51400</v>
+        <v>42833.333333333321</v>
       </c>
       <c r="E49" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4150,7 +4213,7 @@
       </c>
       <c r="D50" s="5">
         <f t="shared" si="0"/>
-        <v>53800</v>
+        <v>44833.333333333321</v>
       </c>
       <c r="E50" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4190,7 +4253,7 @@
       </c>
       <c r="D51" s="5">
         <f t="shared" si="0"/>
-        <v>62800</v>
+        <v>52333.333333333321</v>
       </c>
       <c r="E51" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4230,7 +4293,7 @@
       </c>
       <c r="D52" s="5">
         <f t="shared" si="0"/>
-        <v>65000</v>
+        <v>54166.666666666657</v>
       </c>
       <c r="E52" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4270,7 +4333,7 @@
       </c>
       <c r="D53" s="5">
         <f t="shared" si="0"/>
-        <v>69400</v>
+        <v>57833.333333333321</v>
       </c>
       <c r="E53" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4310,7 +4373,7 @@
       </c>
       <c r="D54" s="5">
         <f t="shared" si="0"/>
-        <v>73800</v>
+        <v>61499.999999999985</v>
       </c>
       <c r="E54" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4350,7 +4413,7 @@
       </c>
       <c r="D55" s="5">
         <f t="shared" si="0"/>
-        <v>80400</v>
+        <v>66999.999999999985</v>
       </c>
       <c r="E55" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4390,7 +4453,7 @@
       </c>
       <c r="D56" s="5">
         <f t="shared" si="0"/>
-        <v>94200</v>
+        <v>78499.999999999985</v>
       </c>
       <c r="E56" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4430,7 +4493,7 @@
       </c>
       <c r="D57" s="5">
         <f t="shared" si="0"/>
-        <v>95200</v>
+        <v>79333.333333333314</v>
       </c>
       <c r="E57" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4470,7 +4533,7 @@
       </c>
       <c r="D58" s="5">
         <f t="shared" si="0"/>
-        <v>98400</v>
+        <v>81999.999999999985</v>
       </c>
       <c r="E58" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4510,7 +4573,7 @@
       </c>
       <c r="D59" s="5">
         <f t="shared" si="0"/>
-        <v>106200</v>
+        <v>88499.999999999985</v>
       </c>
       <c r="E59" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4550,7 +4613,7 @@
       </c>
       <c r="D60" s="5">
         <f t="shared" si="0"/>
-        <v>110400</v>
+        <v>91999.999999999985</v>
       </c>
       <c r="E60" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4590,7 +4653,7 @@
       </c>
       <c r="D61" s="5">
         <f t="shared" si="0"/>
-        <v>297400</v>
+        <v>247833.33333333328</v>
       </c>
       <c r="E61" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4666,7 +4729,7 @@
       </c>
       <c r="D63" s="5">
         <f t="shared" si="0"/>
-        <v>20200</v>
+        <v>16833.333333333328</v>
       </c>
       <c r="E63" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4706,7 +4769,7 @@
       </c>
       <c r="D64" s="5">
         <f t="shared" si="0"/>
-        <v>7600</v>
+        <v>6333.3333333333321</v>
       </c>
       <c r="E64" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4746,7 +4809,7 @@
       </c>
       <c r="D65" s="5">
         <f t="shared" si="0"/>
-        <v>27400</v>
+        <v>22833.333333333328</v>
       </c>
       <c r="E65" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4786,7 +4849,7 @@
       </c>
       <c r="D66" s="5">
         <f t="shared" si="0"/>
-        <v>44400</v>
+        <v>36999.999999999993</v>
       </c>
       <c r="E66" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4825,8 +4888,8 @@
         <v>501000</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" ref="D67:D130" si="2">IF(C67&lt;&gt;"",C67*20%,"")</f>
-        <v>100200</v>
+        <f t="shared" ref="D67:D130" si="2">IF(C67&lt;&gt;"",C67*(1-1/(1+0.2)),"")</f>
+        <v>83499.999999999985</v>
       </c>
       <c r="E67" s="17" t="str">
         <f t="shared" ref="E67:E130" si="3">_xlfn.CONCAT(A67," ",B67)</f>
@@ -4866,7 +4929,7 @@
       </c>
       <c r="D68" s="5">
         <f t="shared" si="2"/>
-        <v>85600</v>
+        <v>71333.333333333314</v>
       </c>
       <c r="E68" s="17" t="str">
         <f t="shared" si="3"/>
@@ -4906,7 +4969,7 @@
       </c>
       <c r="D69" s="5">
         <f t="shared" si="2"/>
-        <v>112200</v>
+        <v>93499.999999999985</v>
       </c>
       <c r="E69" s="17" t="str">
         <f t="shared" si="3"/>
@@ -4946,7 +5009,7 @@
       </c>
       <c r="D70" s="5">
         <f t="shared" si="2"/>
-        <v>315600</v>
+        <v>262999.99999999994</v>
       </c>
       <c r="E70" s="17" t="str">
         <f t="shared" si="3"/>
@@ -4986,7 +5049,7 @@
       </c>
       <c r="D71" s="5">
         <f t="shared" si="2"/>
-        <v>6800</v>
+        <v>5666.6666666666652</v>
       </c>
       <c r="E71" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5026,7 +5089,7 @@
       </c>
       <c r="D72" s="5">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>3333.3333333333326</v>
       </c>
       <c r="E72" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5066,7 +5129,7 @@
       </c>
       <c r="D73" s="5">
         <f t="shared" si="2"/>
-        <v>4600</v>
+        <v>3833.3333333333326</v>
       </c>
       <c r="E73" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5104,7 +5167,7 @@
       </c>
       <c r="D74" s="5">
         <f t="shared" si="2"/>
-        <v>19600</v>
+        <v>16333.33333333333</v>
       </c>
       <c r="E74" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5142,7 +5205,7 @@
       </c>
       <c r="D75" s="5">
         <f t="shared" si="2"/>
-        <v>50200</v>
+        <v>41833.333333333321</v>
       </c>
       <c r="E75" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5180,7 +5243,7 @@
       </c>
       <c r="D76" s="5">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="E76" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5218,7 +5281,7 @@
       </c>
       <c r="D77" s="5">
         <f t="shared" si="2"/>
-        <v>2800</v>
+        <v>2333.333333333333</v>
       </c>
       <c r="E77" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5294,7 +5357,7 @@
       </c>
       <c r="D79" s="5">
         <f t="shared" si="2"/>
-        <v>79800</v>
+        <v>66499.999999999985</v>
       </c>
       <c r="E79" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5334,7 +5397,7 @@
       </c>
       <c r="D80" s="5">
         <f t="shared" si="2"/>
-        <v>51800</v>
+        <v>43166.666666666657</v>
       </c>
       <c r="E80" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5374,7 +5437,7 @@
       </c>
       <c r="D81" s="5">
         <f t="shared" si="2"/>
-        <v>64800</v>
+        <v>53999.999999999985</v>
       </c>
       <c r="E81" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5414,7 +5477,7 @@
       </c>
       <c r="D82" s="5">
         <f t="shared" si="2"/>
-        <v>75600</v>
+        <v>62999.999999999985</v>
       </c>
       <c r="E82" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5454,7 +5517,7 @@
       </c>
       <c r="D83" s="5">
         <f t="shared" si="2"/>
-        <v>93800</v>
+        <v>78166.666666666642</v>
       </c>
       <c r="E83" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5494,7 +5557,7 @@
       </c>
       <c r="D84" s="5">
         <f t="shared" si="2"/>
-        <v>111200</v>
+        <v>92666.666666666642</v>
       </c>
       <c r="E84" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5534,7 +5597,7 @@
       </c>
       <c r="D85" s="5">
         <f t="shared" si="2"/>
-        <v>95200</v>
+        <v>79333.333333333314</v>
       </c>
       <c r="E85" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5574,7 +5637,7 @@
       </c>
       <c r="D86" s="5">
         <f t="shared" si="2"/>
-        <v>95400</v>
+        <v>79499.999999999985</v>
       </c>
       <c r="E86" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5614,7 +5677,7 @@
       </c>
       <c r="D87" s="5">
         <f t="shared" si="2"/>
-        <v>111200</v>
+        <v>92666.666666666642</v>
       </c>
       <c r="E87" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5654,7 +5717,7 @@
       </c>
       <c r="D88" s="5">
         <f t="shared" si="2"/>
-        <v>139000</v>
+        <v>115833.33333333331</v>
       </c>
       <c r="E88" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5694,7 +5757,7 @@
       </c>
       <c r="D89" s="5">
         <f t="shared" si="2"/>
-        <v>255800</v>
+        <v>213166.66666666663</v>
       </c>
       <c r="E89" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5734,7 +5797,7 @@
       </c>
       <c r="D90" s="5">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>5833.3333333333321</v>
       </c>
       <c r="E90" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5774,7 +5837,7 @@
       </c>
       <c r="D91" s="5">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>29166.666666666661</v>
       </c>
       <c r="E91" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5814,7 +5877,7 @@
       </c>
       <c r="D92" s="5">
         <f t="shared" si="2"/>
-        <v>54400</v>
+        <v>45333.333333333321</v>
       </c>
       <c r="E92" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5854,7 +5917,7 @@
       </c>
       <c r="D93" s="5">
         <f t="shared" si="2"/>
-        <v>39600</v>
+        <v>32999.999999999993</v>
       </c>
       <c r="E93" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5894,7 +5957,7 @@
       </c>
       <c r="D94" s="5">
         <f t="shared" si="2"/>
-        <v>58000</v>
+        <v>48333.333333333321</v>
       </c>
       <c r="E94" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5934,7 +5997,7 @@
       </c>
       <c r="D95" s="5">
         <f t="shared" si="2"/>
-        <v>117800</v>
+        <v>98166.666666666642</v>
       </c>
       <c r="E95" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5974,7 +6037,7 @@
       </c>
       <c r="D96" s="5">
         <f t="shared" si="2"/>
-        <v>148600</v>
+        <v>123833.3333333333</v>
       </c>
       <c r="E96" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6014,7 +6077,7 @@
       </c>
       <c r="D97" s="5">
         <f t="shared" si="2"/>
-        <v>54200</v>
+        <v>45166.666666666657</v>
       </c>
       <c r="E97" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6054,7 +6117,7 @@
       </c>
       <c r="D98" s="5">
         <f t="shared" si="2"/>
-        <v>126400</v>
+        <v>105333.33333333331</v>
       </c>
       <c r="E98" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6094,7 +6157,7 @@
       </c>
       <c r="D99" s="5">
         <f t="shared" si="2"/>
-        <v>18000</v>
+        <v>14999.999999999996</v>
       </c>
       <c r="E99" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6134,7 +6197,7 @@
       </c>
       <c r="D100" s="5">
         <f t="shared" si="2"/>
-        <v>800</v>
+        <v>666.66666666666652</v>
       </c>
       <c r="E100" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6174,7 +6237,7 @@
       </c>
       <c r="D101" s="5">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>833.33333333333314</v>
       </c>
       <c r="E101" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6214,7 +6277,7 @@
       </c>
       <c r="D102" s="5">
         <f t="shared" si="2"/>
-        <v>8200</v>
+        <v>6833.3333333333321</v>
       </c>
       <c r="E102" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6290,7 +6353,7 @@
       </c>
       <c r="D104" s="5">
         <f t="shared" si="2"/>
-        <v>147400</v>
+        <v>122833.3333333333</v>
       </c>
       <c r="E104" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6330,7 +6393,7 @@
       </c>
       <c r="D105" s="5">
         <f t="shared" si="2"/>
-        <v>182000</v>
+        <v>151666.66666666663</v>
       </c>
       <c r="E105" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6368,7 +6431,7 @@
       </c>
       <c r="D106" s="5">
         <f t="shared" si="2"/>
-        <v>48200</v>
+        <v>40166.666666666657</v>
       </c>
       <c r="E106" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6444,7 +6507,7 @@
       </c>
       <c r="D108" s="5">
         <f t="shared" si="2"/>
-        <v>22400</v>
+        <v>18666.666666666664</v>
       </c>
       <c r="E108" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6484,7 +6547,7 @@
       </c>
       <c r="D109" s="5">
         <f t="shared" si="2"/>
-        <v>22600</v>
+        <v>18833.333333333328</v>
       </c>
       <c r="E109" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6524,7 +6587,7 @@
       </c>
       <c r="D110" s="5">
         <f t="shared" si="2"/>
-        <v>24200</v>
+        <v>20166.666666666661</v>
       </c>
       <c r="E110" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6564,7 +6627,7 @@
       </c>
       <c r="D111" s="5">
         <f t="shared" si="2"/>
-        <v>32000</v>
+        <v>26666.666666666661</v>
       </c>
       <c r="E111" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6604,7 +6667,7 @@
       </c>
       <c r="D112" s="5">
         <f t="shared" si="2"/>
-        <v>39000</v>
+        <v>32499.999999999993</v>
       </c>
       <c r="E112" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6644,7 +6707,7 @@
       </c>
       <c r="D113" s="5">
         <f t="shared" si="2"/>
-        <v>43000</v>
+        <v>35833.333333333328</v>
       </c>
       <c r="E113" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6684,7 +6747,7 @@
       </c>
       <c r="D114" s="5">
         <f t="shared" si="2"/>
-        <v>64200</v>
+        <v>53499.999999999985</v>
       </c>
       <c r="E114" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6724,7 +6787,7 @@
       </c>
       <c r="D115" s="5">
         <f t="shared" si="2"/>
-        <v>122800</v>
+        <v>102333.33333333331</v>
       </c>
       <c r="E115" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6800,7 +6863,7 @@
       </c>
       <c r="D117" s="5">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>4999.9999999999991</v>
       </c>
       <c r="E117" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6840,7 +6903,7 @@
       </c>
       <c r="D118" s="5">
         <f t="shared" si="2"/>
-        <v>6800</v>
+        <v>5666.6666666666652</v>
       </c>
       <c r="E118" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6880,7 +6943,7 @@
       </c>
       <c r="D119" s="5">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>5833.3333333333321</v>
       </c>
       <c r="E119" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6920,7 +6983,7 @@
       </c>
       <c r="D120" s="5">
         <f t="shared" si="2"/>
-        <v>15400</v>
+        <v>12833.33333333333</v>
       </c>
       <c r="E120" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6960,7 +7023,7 @@
       </c>
       <c r="D121" s="5">
         <f t="shared" si="2"/>
-        <v>144600</v>
+        <v>120499.99999999997</v>
       </c>
       <c r="E121" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7000,7 +7063,7 @@
       </c>
       <c r="D122" s="5">
         <f t="shared" si="2"/>
-        <v>148400</v>
+        <v>123666.66666666664</v>
       </c>
       <c r="E122" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7040,7 +7103,7 @@
       </c>
       <c r="D123" s="5">
         <f t="shared" si="2"/>
-        <v>155600</v>
+        <v>129666.66666666664</v>
       </c>
       <c r="E123" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7080,7 +7143,7 @@
       </c>
       <c r="D124" s="5">
         <f t="shared" si="2"/>
-        <v>175600</v>
+        <v>146333.33333333331</v>
       </c>
       <c r="E124" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7120,7 +7183,7 @@
       </c>
       <c r="D125" s="5">
         <f t="shared" si="2"/>
-        <v>176600</v>
+        <v>147166.66666666663</v>
       </c>
       <c r="E125" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7160,7 +7223,7 @@
       </c>
       <c r="D126" s="5">
         <f t="shared" si="2"/>
-        <v>182600</v>
+        <v>152166.66666666663</v>
       </c>
       <c r="E126" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7200,7 +7263,7 @@
       </c>
       <c r="D127" s="5">
         <f t="shared" si="2"/>
-        <v>225000</v>
+        <v>187499.99999999997</v>
       </c>
       <c r="E127" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7274,7 +7337,7 @@
       </c>
       <c r="D129" s="5">
         <f t="shared" si="2"/>
-        <v>6600</v>
+        <v>5499.9999999999991</v>
       </c>
       <c r="E129" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7312,7 +7375,7 @@
       </c>
       <c r="D130" s="5">
         <f t="shared" si="2"/>
-        <v>10400</v>
+        <v>8666.6666666666642</v>
       </c>
       <c r="E130" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7349,8 +7412,8 @@
         <v>97000</v>
       </c>
       <c r="D131" s="5">
-        <f t="shared" ref="D131:D194" si="4">IF(C131&lt;&gt;"",C131*20%,"")</f>
-        <v>19400</v>
+        <f t="shared" ref="D131:D194" si="4">IF(C131&lt;&gt;"",C131*(1-1/(1+0.2)),"")</f>
+        <v>16166.666666666662</v>
       </c>
       <c r="E131" s="17" t="str">
         <f t="shared" ref="E131:E194" si="5">_xlfn.CONCAT(A131," ",B131)</f>
@@ -7428,7 +7491,7 @@
       </c>
       <c r="D133" s="5">
         <f t="shared" si="4"/>
-        <v>26200</v>
+        <v>21833.333333333328</v>
       </c>
       <c r="E133" s="17" t="str">
         <f t="shared" si="5"/>
@@ -7468,7 +7531,7 @@
       </c>
       <c r="D134" s="5">
         <f t="shared" si="4"/>
-        <v>33800</v>
+        <v>28166.666666666661</v>
       </c>
       <c r="E134" s="17" t="str">
         <f t="shared" si="5"/>
@@ -7508,7 +7571,7 @@
       </c>
       <c r="D135" s="5">
         <f t="shared" si="4"/>
-        <v>38000</v>
+        <v>31666.666666666661</v>
       </c>
       <c r="E135" s="17" t="str">
         <f t="shared" si="5"/>
@@ -7548,7 +7611,7 @@
       </c>
       <c r="D136" s="5">
         <f t="shared" si="4"/>
-        <v>38200</v>
+        <v>31833.333333333325</v>
       </c>
       <c r="E136" s="17" t="str">
         <f t="shared" si="5"/>
@@ -7588,7 +7651,7 @@
       </c>
       <c r="D137" s="5">
         <f t="shared" si="4"/>
-        <v>39400</v>
+        <v>32833.333333333328</v>
       </c>
       <c r="E137" s="17" t="str">
         <f t="shared" si="5"/>
@@ -7628,7 +7691,7 @@
       </c>
       <c r="D138" s="5">
         <f t="shared" si="4"/>
-        <v>40200</v>
+        <v>33499.999999999993</v>
       </c>
       <c r="E138" s="17" t="str">
         <f t="shared" si="5"/>
@@ -7668,7 +7731,7 @@
       </c>
       <c r="D139" s="5">
         <f t="shared" si="4"/>
-        <v>44000</v>
+        <v>36666.666666666657</v>
       </c>
       <c r="E139" s="17" t="str">
         <f t="shared" si="5"/>
@@ -7708,7 +7771,7 @@
       </c>
       <c r="D140" s="5">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>41666.666666666657</v>
       </c>
       <c r="E140" s="17" t="str">
         <f t="shared" si="5"/>
@@ -7748,7 +7811,7 @@
       </c>
       <c r="D141" s="5">
         <f t="shared" si="4"/>
-        <v>51400</v>
+        <v>42833.333333333321</v>
       </c>
       <c r="E141" s="17" t="str">
         <f t="shared" si="5"/>
@@ -7788,7 +7851,7 @@
       </c>
       <c r="D142" s="5">
         <f t="shared" si="4"/>
-        <v>55600</v>
+        <v>46333.333333333321</v>
       </c>
       <c r="E142" s="17" t="str">
         <f t="shared" si="5"/>
@@ -7828,7 +7891,7 @@
       </c>
       <c r="D143" s="5">
         <f t="shared" si="4"/>
-        <v>56000</v>
+        <v>46666.666666666657</v>
       </c>
       <c r="E143" s="17" t="str">
         <f t="shared" si="5"/>
@@ -7868,7 +7931,7 @@
       </c>
       <c r="D144" s="5">
         <f t="shared" si="4"/>
-        <v>60000</v>
+        <v>49999.999999999985</v>
       </c>
       <c r="E144" s="17" t="str">
         <f t="shared" si="5"/>
@@ -7908,7 +7971,7 @@
       </c>
       <c r="D145" s="5">
         <f t="shared" si="4"/>
-        <v>61000</v>
+        <v>50833.333333333321</v>
       </c>
       <c r="E145" s="17" t="str">
         <f t="shared" si="5"/>
@@ -7948,7 +8011,7 @@
       </c>
       <c r="D146" s="5">
         <f t="shared" si="4"/>
-        <v>67000</v>
+        <v>55833.333333333321</v>
       </c>
       <c r="E146" s="17" t="str">
         <f t="shared" si="5"/>
@@ -7988,7 +8051,7 @@
       </c>
       <c r="D147" s="5">
         <f t="shared" si="4"/>
-        <v>72000</v>
+        <v>59999.999999999985</v>
       </c>
       <c r="E147" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8028,7 +8091,7 @@
       </c>
       <c r="D148" s="5">
         <f t="shared" si="4"/>
-        <v>85800</v>
+        <v>71499.999999999985</v>
       </c>
       <c r="E148" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8068,7 +8131,7 @@
       </c>
       <c r="D149" s="5">
         <f t="shared" si="4"/>
-        <v>140200</v>
+        <v>116833.33333333331</v>
       </c>
       <c r="E149" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8144,7 +8207,7 @@
       </c>
       <c r="D151" s="5">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>14999.999999999996</v>
       </c>
       <c r="E151" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8184,7 +8247,7 @@
       </c>
       <c r="D152" s="5">
         <f t="shared" si="4"/>
-        <v>13800</v>
+        <v>11499.999999999998</v>
       </c>
       <c r="E152" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8224,7 +8287,7 @@
       </c>
       <c r="D153" s="5">
         <f t="shared" si="4"/>
-        <v>17800</v>
+        <v>14833.33333333333</v>
       </c>
       <c r="E153" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8264,7 +8327,7 @@
       </c>
       <c r="D154" s="5">
         <f t="shared" si="4"/>
-        <v>27600</v>
+        <v>22999.999999999996</v>
       </c>
       <c r="E154" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8304,7 +8367,7 @@
       </c>
       <c r="D155" s="5">
         <f t="shared" si="4"/>
-        <v>39200</v>
+        <v>32666.666666666661</v>
       </c>
       <c r="E155" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8344,7 +8407,7 @@
       </c>
       <c r="D156" s="5">
         <f t="shared" si="4"/>
-        <v>65800</v>
+        <v>54833.333333333321</v>
       </c>
       <c r="E156" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8384,7 +8447,7 @@
       </c>
       <c r="D157" s="5">
         <f t="shared" si="4"/>
-        <v>59000</v>
+        <v>49166.666666666657</v>
       </c>
       <c r="E157" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8424,7 +8487,7 @@
       </c>
       <c r="D158" s="5">
         <f t="shared" si="4"/>
-        <v>3800</v>
+        <v>3166.6666666666661</v>
       </c>
       <c r="E158" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8464,7 +8527,7 @@
       </c>
       <c r="D159" s="5">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>4333.3333333333321</v>
       </c>
       <c r="E159" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8504,7 +8567,7 @@
       </c>
       <c r="D160" s="5">
         <f t="shared" si="4"/>
-        <v>5600</v>
+        <v>4666.6666666666661</v>
       </c>
       <c r="E160" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8544,7 +8607,7 @@
       </c>
       <c r="D161" s="5">
         <f t="shared" si="4"/>
-        <v>11200</v>
+        <v>9333.3333333333321</v>
       </c>
       <c r="E161" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8618,7 +8681,7 @@
       </c>
       <c r="D163" s="5">
         <f t="shared" si="4"/>
-        <v>43200</v>
+        <v>35999.999999999993</v>
       </c>
       <c r="E163" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8656,7 +8719,7 @@
       </c>
       <c r="D164" s="5">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>41666.666666666657</v>
       </c>
       <c r="E164" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8694,7 +8757,7 @@
       </c>
       <c r="D165" s="5">
         <f t="shared" si="4"/>
-        <v>76400</v>
+        <v>63666.66666666665</v>
       </c>
       <c r="E165" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8732,7 +8795,7 @@
       </c>
       <c r="D166" s="5">
         <f t="shared" si="4"/>
-        <v>104800</v>
+        <v>87333.333333333314</v>
       </c>
       <c r="E166" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8770,7 +8833,7 @@
       </c>
       <c r="D167" s="5">
         <f t="shared" si="4"/>
-        <v>151400</v>
+        <v>126166.66666666664</v>
       </c>
       <c r="E167" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8808,7 +8871,7 @@
       </c>
       <c r="D168" s="5">
         <f t="shared" si="4"/>
-        <v>209000</v>
+        <v>174166.66666666663</v>
       </c>
       <c r="E168" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8846,7 +8909,7 @@
       </c>
       <c r="D169" s="5">
         <f t="shared" si="4"/>
-        <v>313600</v>
+        <v>261333.33333333328</v>
       </c>
       <c r="E169" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8884,7 +8947,7 @@
       </c>
       <c r="D170" s="5">
         <f t="shared" si="4"/>
-        <v>23400</v>
+        <v>19499.999999999996</v>
       </c>
       <c r="E170" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8922,7 +8985,7 @@
       </c>
       <c r="D171" s="5">
         <f t="shared" si="4"/>
-        <v>31600</v>
+        <v>26333.333333333328</v>
       </c>
       <c r="E171" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8960,7 +9023,7 @@
       </c>
       <c r="D172" s="5">
         <f t="shared" si="4"/>
-        <v>52000</v>
+        <v>43333.333333333321</v>
       </c>
       <c r="E172" s="17" t="str">
         <f t="shared" si="5"/>
@@ -8998,7 +9061,7 @@
       </c>
       <c r="D173" s="5">
         <f t="shared" si="4"/>
-        <v>38600</v>
+        <v>32166.666666666661</v>
       </c>
       <c r="E173" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9036,7 +9099,7 @@
       </c>
       <c r="D174" s="5">
         <f t="shared" si="4"/>
-        <v>54000</v>
+        <v>44999.999999999993</v>
       </c>
       <c r="E174" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9074,7 +9137,7 @@
       </c>
       <c r="D175" s="5">
         <f t="shared" si="4"/>
-        <v>62800</v>
+        <v>52333.333333333321</v>
       </c>
       <c r="E175" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9112,7 +9175,7 @@
       </c>
       <c r="D176" s="5">
         <f t="shared" si="4"/>
-        <v>178800</v>
+        <v>148999.99999999997</v>
       </c>
       <c r="E176" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9150,7 +9213,7 @@
       </c>
       <c r="D177" s="5">
         <f t="shared" si="4"/>
-        <v>208000</v>
+        <v>173333.33333333328</v>
       </c>
       <c r="E177" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9188,7 +9251,7 @@
       </c>
       <c r="D178" s="5">
         <f t="shared" si="4"/>
-        <v>1600</v>
+        <v>1333.333333333333</v>
       </c>
       <c r="E178" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9226,7 +9289,7 @@
       </c>
       <c r="D179" s="5">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1666.6666666666663</v>
       </c>
       <c r="E179" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9264,7 +9327,7 @@
       </c>
       <c r="D180" s="5">
         <f t="shared" si="4"/>
-        <v>4800</v>
+        <v>3999.9999999999991</v>
       </c>
       <c r="E180" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9304,7 +9367,7 @@
       </c>
       <c r="D181" s="5">
         <f t="shared" si="4"/>
-        <v>2200</v>
+        <v>1833.333333333333</v>
       </c>
       <c r="E181" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9344,7 +9407,7 @@
       </c>
       <c r="D182" s="5">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1666.6666666666663</v>
       </c>
       <c r="E182" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9384,7 +9447,7 @@
       </c>
       <c r="D183" s="5">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>4333.3333333333321</v>
       </c>
       <c r="E183" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9460,7 +9523,7 @@
       </c>
       <c r="D185" s="5">
         <f t="shared" si="4"/>
-        <v>4400</v>
+        <v>3666.6666666666661</v>
       </c>
       <c r="E185" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9500,7 +9563,7 @@
       </c>
       <c r="D186" s="5">
         <f t="shared" si="4"/>
-        <v>12600</v>
+        <v>10499.999999999998</v>
       </c>
       <c r="E186" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9540,7 +9603,7 @@
       </c>
       <c r="D187" s="5">
         <f t="shared" si="4"/>
-        <v>12600</v>
+        <v>10499.999999999998</v>
       </c>
       <c r="E187" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9580,7 +9643,7 @@
       </c>
       <c r="D188" s="5">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>4333.3333333333321</v>
       </c>
       <c r="E188" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9620,7 +9683,7 @@
       </c>
       <c r="D189" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>4166.6666666666661</v>
       </c>
       <c r="E189" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9660,7 +9723,7 @@
       </c>
       <c r="D190" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>4166.6666666666661</v>
       </c>
       <c r="E190" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9700,7 +9763,7 @@
       </c>
       <c r="D191" s="5">
         <f t="shared" si="4"/>
-        <v>9200</v>
+        <v>7666.6666666666652</v>
       </c>
       <c r="E191" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9776,7 +9839,7 @@
       </c>
       <c r="D193" s="5">
         <f t="shared" si="4"/>
-        <v>7400</v>
+        <v>6166.6666666666652</v>
       </c>
       <c r="E193" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9816,7 +9879,7 @@
       </c>
       <c r="D194" s="5">
         <f t="shared" si="4"/>
-        <v>7400</v>
+        <v>6166.6666666666652</v>
       </c>
       <c r="E194" s="17" t="str">
         <f t="shared" si="5"/>
@@ -9855,8 +9918,8 @@
         <v>11000</v>
       </c>
       <c r="D195" s="5">
-        <f t="shared" ref="D195:D258" si="6">IF(C195&lt;&gt;"",C195*20%,"")</f>
-        <v>2200</v>
+        <f t="shared" ref="D195:D258" si="6">IF(C195&lt;&gt;"",C195*(1-1/(1+0.2)),"")</f>
+        <v>1833.333333333333</v>
       </c>
       <c r="E195" s="17" t="str">
         <f t="shared" ref="E195:E258" si="7">_xlfn.CONCAT(A195," ",B195)</f>
@@ -9896,7 +9959,7 @@
       </c>
       <c r="D196" s="5">
         <f t="shared" si="6"/>
-        <v>9200</v>
+        <v>7666.6666666666652</v>
       </c>
       <c r="E196" s="17" t="str">
         <f t="shared" si="7"/>
@@ -9936,7 +9999,7 @@
       </c>
       <c r="D197" s="5">
         <f t="shared" si="6"/>
-        <v>3800</v>
+        <v>3166.6666666666661</v>
       </c>
       <c r="E197" s="17" t="str">
         <f t="shared" si="7"/>
@@ -9976,7 +10039,7 @@
       </c>
       <c r="D198" s="5">
         <f t="shared" si="6"/>
-        <v>2600</v>
+        <v>2166.6666666666661</v>
       </c>
       <c r="E198" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10016,7 +10079,7 @@
       </c>
       <c r="D199" s="5">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>4333.3333333333321</v>
       </c>
       <c r="E199" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10056,7 +10119,7 @@
       </c>
       <c r="D200" s="5">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>4333.3333333333321</v>
       </c>
       <c r="E200" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10096,7 +10159,7 @@
       </c>
       <c r="D201" s="5">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>3333.3333333333326</v>
       </c>
       <c r="E201" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10136,7 +10199,7 @@
       </c>
       <c r="D202" s="5">
         <f t="shared" si="6"/>
-        <v>9800</v>
+        <v>8166.6666666666652</v>
       </c>
       <c r="E202" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10176,7 +10239,7 @@
       </c>
       <c r="D203" s="5">
         <f t="shared" si="6"/>
-        <v>6600</v>
+        <v>5499.9999999999991</v>
       </c>
       <c r="E203" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10216,7 +10279,7 @@
       </c>
       <c r="D204" s="5">
         <f t="shared" si="6"/>
-        <v>13600</v>
+        <v>11333.33333333333</v>
       </c>
       <c r="E204" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10256,7 +10319,7 @@
       </c>
       <c r="D205" s="5">
         <f t="shared" si="6"/>
-        <v>6600</v>
+        <v>5499.9999999999991</v>
       </c>
       <c r="E205" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10296,7 +10359,7 @@
       </c>
       <c r="D206" s="5">
         <f t="shared" si="6"/>
-        <v>29400</v>
+        <v>24499.999999999996</v>
       </c>
       <c r="E206" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10336,7 +10399,7 @@
       </c>
       <c r="D207" s="5">
         <f t="shared" si="6"/>
-        <v>30200</v>
+        <v>25166.666666666661</v>
       </c>
       <c r="E207" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10376,7 +10439,7 @@
       </c>
       <c r="D208" s="5">
         <f t="shared" si="6"/>
-        <v>39400</v>
+        <v>32833.333333333328</v>
       </c>
       <c r="E208" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10416,7 +10479,7 @@
       </c>
       <c r="D209" s="5">
         <f t="shared" si="6"/>
-        <v>62000</v>
+        <v>51666.666666666657</v>
       </c>
       <c r="E209" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10456,7 +10519,7 @@
       </c>
       <c r="D210" s="5">
         <f t="shared" si="6"/>
-        <v>54200</v>
+        <v>45166.666666666657</v>
       </c>
       <c r="E210" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10496,7 +10559,7 @@
       </c>
       <c r="D211" s="5">
         <f t="shared" si="6"/>
-        <v>91600</v>
+        <v>76333.333333333314</v>
       </c>
       <c r="E211" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10536,7 +10599,7 @@
       </c>
       <c r="D212" s="5">
         <f t="shared" si="6"/>
-        <v>82400</v>
+        <v>68666.666666666657</v>
       </c>
       <c r="E212" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10576,7 +10639,7 @@
       </c>
       <c r="D213" s="5">
         <f t="shared" si="6"/>
-        <v>161400</v>
+        <v>134499.99999999997</v>
       </c>
       <c r="E213" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10614,7 +10677,7 @@
       </c>
       <c r="D214" s="5">
         <f t="shared" si="6"/>
-        <v>800</v>
+        <v>666.66666666666652</v>
       </c>
       <c r="E214" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10652,7 +10715,7 @@
       </c>
       <c r="D215" s="5">
         <f t="shared" si="6"/>
-        <v>16200</v>
+        <v>13499.999999999996</v>
       </c>
       <c r="E215" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10690,7 +10753,7 @@
       </c>
       <c r="D216" s="5">
         <f t="shared" si="6"/>
-        <v>25000</v>
+        <v>20833.333333333328</v>
       </c>
       <c r="E216" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10728,7 +10791,7 @@
       </c>
       <c r="D217" s="5">
         <f t="shared" si="6"/>
-        <v>19600</v>
+        <v>16333.33333333333</v>
       </c>
       <c r="E217" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10766,7 +10829,7 @@
       </c>
       <c r="D218" s="5">
         <f t="shared" si="6"/>
-        <v>28000</v>
+        <v>23333.333333333328</v>
       </c>
       <c r="E218" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10806,7 +10869,7 @@
       </c>
       <c r="D219" s="5">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>833.33333333333314</v>
       </c>
       <c r="E219" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10846,7 +10909,7 @@
       </c>
       <c r="D220" s="5">
         <f t="shared" si="6"/>
-        <v>1200</v>
+        <v>999.99999999999977</v>
       </c>
       <c r="E220" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10884,7 +10947,7 @@
       </c>
       <c r="D221" s="5">
         <f t="shared" si="6"/>
-        <v>1800</v>
+        <v>1499.9999999999998</v>
       </c>
       <c r="E221" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10924,7 +10987,7 @@
       </c>
       <c r="D222" s="5">
         <f t="shared" si="6"/>
-        <v>1600</v>
+        <v>1333.333333333333</v>
       </c>
       <c r="E222" s="17" t="str">
         <f t="shared" si="7"/>
@@ -10962,7 +11025,7 @@
       </c>
       <c r="D223" s="5">
         <f t="shared" si="6"/>
-        <v>2200</v>
+        <v>1833.333333333333</v>
       </c>
       <c r="E223" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11002,7 +11065,7 @@
       </c>
       <c r="D224" s="5">
         <f t="shared" si="6"/>
-        <v>4200</v>
+        <v>3499.9999999999991</v>
       </c>
       <c r="E224" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11042,7 +11105,7 @@
       </c>
       <c r="D225" s="5">
         <f t="shared" si="6"/>
-        <v>2800</v>
+        <v>2333.333333333333</v>
       </c>
       <c r="E225" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11082,7 +11145,7 @@
       </c>
       <c r="D226" s="5">
         <f t="shared" si="6"/>
-        <v>4600</v>
+        <v>3833.3333333333326</v>
       </c>
       <c r="E226" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11122,7 +11185,7 @@
       </c>
       <c r="D227" s="5">
         <f t="shared" si="6"/>
-        <v>10200</v>
+        <v>8499.9999999999982</v>
       </c>
       <c r="E227" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11198,7 +11261,7 @@
       </c>
       <c r="D229" s="5">
         <f t="shared" si="6"/>
-        <v>39600</v>
+        <v>32999.999999999993</v>
       </c>
       <c r="E229" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11238,7 +11301,7 @@
       </c>
       <c r="D230" s="5">
         <f t="shared" si="6"/>
-        <v>33400</v>
+        <v>27833.333333333328</v>
       </c>
       <c r="E230" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11278,7 +11341,7 @@
       </c>
       <c r="D231" s="5">
         <f t="shared" si="6"/>
-        <v>19000</v>
+        <v>15833.33333333333</v>
       </c>
       <c r="E231" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11318,7 +11381,7 @@
       </c>
       <c r="D232" s="5">
         <f t="shared" si="6"/>
-        <v>28200</v>
+        <v>23499.999999999996</v>
       </c>
       <c r="E232" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11358,7 +11421,7 @@
       </c>
       <c r="D233" s="5">
         <f t="shared" si="6"/>
-        <v>70200</v>
+        <v>58499.999999999985</v>
       </c>
       <c r="E233" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11398,7 +11461,7 @@
       </c>
       <c r="D234" s="5">
         <f t="shared" si="6"/>
-        <v>82800</v>
+        <v>68999.999999999985</v>
       </c>
       <c r="E234" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11438,7 +11501,7 @@
       </c>
       <c r="D235" s="5">
         <f t="shared" si="6"/>
-        <v>12200</v>
+        <v>10166.666666666664</v>
       </c>
       <c r="E235" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11478,7 +11541,7 @@
       </c>
       <c r="D236" s="5">
         <f t="shared" si="6"/>
-        <v>178600</v>
+        <v>148833.33333333331</v>
       </c>
       <c r="E236" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11518,7 +11581,7 @@
       </c>
       <c r="D237" s="5">
         <f t="shared" si="6"/>
-        <v>197000</v>
+        <v>164166.66666666663</v>
       </c>
       <c r="E237" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11558,7 +11621,7 @@
       </c>
       <c r="D238" s="5">
         <f t="shared" si="6"/>
-        <v>59200</v>
+        <v>49333.333333333321</v>
       </c>
       <c r="E238" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11598,7 +11661,7 @@
       </c>
       <c r="D239" s="5">
         <f t="shared" si="6"/>
-        <v>137000</v>
+        <v>114166.66666666664</v>
       </c>
       <c r="E239" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11638,7 +11701,7 @@
       </c>
       <c r="D240" s="5">
         <f t="shared" si="6"/>
-        <v>227600</v>
+        <v>189666.66666666663</v>
       </c>
       <c r="E240" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11678,7 +11741,7 @@
       </c>
       <c r="D241" s="5">
         <f t="shared" si="6"/>
-        <v>266800</v>
+        <v>222333.33333333328</v>
       </c>
       <c r="E241" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11718,7 +11781,7 @@
       </c>
       <c r="D242" s="5">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>4999.9999999999991</v>
       </c>
       <c r="E242" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11758,7 +11821,7 @@
       </c>
       <c r="D243" s="5">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>4999.9999999999991</v>
       </c>
       <c r="E243" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11798,7 +11861,7 @@
       </c>
       <c r="D244" s="5">
         <f t="shared" si="6"/>
-        <v>81200</v>
+        <v>67666.666666666657</v>
       </c>
       <c r="E244" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11838,7 +11901,7 @@
       </c>
       <c r="D245" s="5">
         <f t="shared" si="6"/>
-        <v>39400</v>
+        <v>32833.333333333328</v>
       </c>
       <c r="E245" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11878,7 +11941,7 @@
       </c>
       <c r="D246" s="5">
         <f t="shared" si="6"/>
-        <v>129000</v>
+        <v>107499.99999999997</v>
       </c>
       <c r="E246" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11918,7 +11981,7 @@
       </c>
       <c r="D247" s="5">
         <f t="shared" si="6"/>
-        <v>129000</v>
+        <v>107499.99999999997</v>
       </c>
       <c r="E247" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11958,7 +12021,7 @@
       </c>
       <c r="D248" s="5">
         <f t="shared" si="6"/>
-        <v>51800</v>
+        <v>43166.666666666657</v>
       </c>
       <c r="E248" s="17" t="str">
         <f t="shared" si="7"/>
@@ -11998,7 +12061,7 @@
       </c>
       <c r="D249" s="5">
         <f t="shared" si="6"/>
-        <v>129200</v>
+        <v>107666.66666666664</v>
       </c>
       <c r="E249" s="17" t="str">
         <f t="shared" si="7"/>
@@ -12038,7 +12101,7 @@
       </c>
       <c r="D250" s="5">
         <f t="shared" si="6"/>
-        <v>51800</v>
+        <v>43166.666666666657</v>
       </c>
       <c r="E250" s="17" t="str">
         <f t="shared" si="7"/>
@@ -12078,7 +12141,7 @@
       </c>
       <c r="D251" s="5">
         <f t="shared" si="6"/>
-        <v>129000</v>
+        <v>107499.99999999997</v>
       </c>
       <c r="E251" s="17" t="str">
         <f t="shared" si="7"/>
@@ -12118,7 +12181,7 @@
       </c>
       <c r="D252" s="5">
         <f t="shared" si="6"/>
-        <v>175800</v>
+        <v>146499.99999999997</v>
       </c>
       <c r="E252" s="17" t="str">
         <f t="shared" si="7"/>
@@ -12158,7 +12221,7 @@
       </c>
       <c r="D253" s="5">
         <f t="shared" si="6"/>
-        <v>51800</v>
+        <v>43166.666666666657</v>
       </c>
       <c r="E253" s="17" t="str">
         <f t="shared" si="7"/>
@@ -12198,7 +12261,7 @@
       </c>
       <c r="D254" s="5">
         <f t="shared" si="6"/>
-        <v>54800</v>
+        <v>45666.666666666657</v>
       </c>
       <c r="E254" s="17" t="str">
         <f t="shared" si="7"/>
@@ -12238,7 +12301,7 @@
       </c>
       <c r="D255" s="5">
         <f t="shared" si="6"/>
-        <v>195000</v>
+        <v>162499.99999999997</v>
       </c>
       <c r="E255" s="17" t="str">
         <f t="shared" si="7"/>
@@ -12278,7 +12341,7 @@
       </c>
       <c r="D256" s="5">
         <f t="shared" si="6"/>
-        <v>96000</v>
+        <v>79999.999999999985</v>
       </c>
       <c r="E256" s="17" t="str">
         <f t="shared" si="7"/>
@@ -12318,7 +12381,7 @@
       </c>
       <c r="D257" s="5">
         <f t="shared" si="6"/>
-        <v>237400</v>
+        <v>197833.33333333328</v>
       </c>
       <c r="E257" s="17" t="str">
         <f t="shared" si="7"/>
@@ -12358,7 +12421,7 @@
       </c>
       <c r="D258" s="5">
         <f t="shared" si="6"/>
-        <v>166400</v>
+        <v>138666.66666666663</v>
       </c>
       <c r="E258" s="17" t="str">
         <f t="shared" si="7"/>
@@ -12397,8 +12460,8 @@
         <v>227000</v>
       </c>
       <c r="D259" s="5">
-        <f t="shared" ref="D259:D322" si="8">IF(C259&lt;&gt;"",C259*20%,"")</f>
-        <v>45400</v>
+        <f t="shared" ref="D259:D322" si="8">IF(C259&lt;&gt;"",C259*(1-1/(1+0.2)),"")</f>
+        <v>37833.333333333328</v>
       </c>
       <c r="E259" s="17" t="str">
         <f t="shared" ref="E259:E322" si="9">_xlfn.CONCAT(A259," ",B259)</f>
@@ -12438,7 +12501,7 @@
       </c>
       <c r="D260" s="5">
         <f t="shared" si="8"/>
-        <v>19600</v>
+        <v>16333.33333333333</v>
       </c>
       <c r="E260" s="17" t="str">
         <f t="shared" si="9"/>
@@ -12478,7 +12541,7 @@
       </c>
       <c r="D261" s="5">
         <f t="shared" si="8"/>
-        <v>238000</v>
+        <v>198333.33333333328</v>
       </c>
       <c r="E261" s="17" t="str">
         <f t="shared" si="9"/>
@@ -12518,7 +12581,7 @@
       </c>
       <c r="D262" s="5">
         <f t="shared" si="8"/>
-        <v>60000</v>
+        <v>49999.999999999985</v>
       </c>
       <c r="E262" s="17" t="str">
         <f t="shared" si="9"/>
@@ -12558,7 +12621,7 @@
       </c>
       <c r="D263" s="5">
         <f t="shared" si="8"/>
-        <v>481400</v>
+        <v>401166.66666666657</v>
       </c>
       <c r="E263" s="17" t="str">
         <f t="shared" si="9"/>
@@ -12598,7 +12661,7 @@
       </c>
       <c r="D264" s="5">
         <f t="shared" si="8"/>
-        <v>204200</v>
+        <v>170166.66666666663</v>
       </c>
       <c r="E264" s="17" t="str">
         <f t="shared" si="9"/>
@@ -12638,7 +12701,7 @@
       </c>
       <c r="D265" s="5">
         <f t="shared" si="8"/>
-        <v>129200</v>
+        <v>107666.66666666664</v>
       </c>
       <c r="E265" s="17" t="str">
         <f t="shared" si="9"/>
@@ -12678,7 +12741,7 @@
       </c>
       <c r="D266" s="5">
         <f t="shared" si="8"/>
-        <v>51800</v>
+        <v>43166.666666666657</v>
       </c>
       <c r="E266" s="17" t="str">
         <f t="shared" si="9"/>
@@ -12718,7 +12781,7 @@
       </c>
       <c r="D267" s="5">
         <f t="shared" si="8"/>
-        <v>38600</v>
+        <v>32166.666666666661</v>
       </c>
       <c r="E267" s="17" t="str">
         <f t="shared" si="9"/>
@@ -12758,7 +12821,7 @@
       </c>
       <c r="D268" s="5">
         <f t="shared" si="8"/>
-        <v>19200</v>
+        <v>15999.999999999996</v>
       </c>
       <c r="E268" s="17" t="str">
         <f t="shared" si="9"/>
@@ -12798,7 +12861,7 @@
       </c>
       <c r="D269" s="5">
         <f t="shared" si="8"/>
-        <v>118800</v>
+        <v>98999.999999999971</v>
       </c>
       <c r="E269" s="17" t="str">
         <f t="shared" si="9"/>
@@ -12838,7 +12901,7 @@
       </c>
       <c r="D270" s="5">
         <f t="shared" si="8"/>
-        <v>56400</v>
+        <v>46999.999999999993</v>
       </c>
       <c r="E270" s="17" t="str">
         <f t="shared" si="9"/>
@@ -12878,7 +12941,7 @@
       </c>
       <c r="D271" s="5">
         <f t="shared" si="8"/>
-        <v>362800</v>
+        <v>302333.33333333326</v>
       </c>
       <c r="E271" s="17" t="str">
         <f t="shared" si="9"/>
@@ -12918,7 +12981,7 @@
       </c>
       <c r="D272" s="5">
         <f t="shared" si="8"/>
-        <v>38600</v>
+        <v>32166.666666666661</v>
       </c>
       <c r="E272" s="17" t="str">
         <f t="shared" si="9"/>
@@ -12958,7 +13021,7 @@
       </c>
       <c r="D273" s="5">
         <f t="shared" si="8"/>
-        <v>130800</v>
+        <v>108999.99999999997</v>
       </c>
       <c r="E273" s="17" t="str">
         <f t="shared" si="9"/>
@@ -12998,7 +13061,7 @@
       </c>
       <c r="D274" s="5">
         <f t="shared" si="8"/>
-        <v>145800</v>
+        <v>121499.99999999997</v>
       </c>
       <c r="E274" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13038,7 +13101,7 @@
       </c>
       <c r="D275" s="5">
         <f t="shared" si="8"/>
-        <v>126400</v>
+        <v>105333.33333333331</v>
       </c>
       <c r="E275" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13078,7 +13141,7 @@
       </c>
       <c r="D276" s="5">
         <f t="shared" si="8"/>
-        <v>48000</v>
+        <v>39999.999999999993</v>
       </c>
       <c r="E276" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13118,7 +13181,7 @@
       </c>
       <c r="D277" s="5">
         <f t="shared" si="8"/>
-        <v>191000</v>
+        <v>159166.66666666663</v>
       </c>
       <c r="E277" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13158,7 +13221,7 @@
       </c>
       <c r="D278" s="5">
         <f t="shared" si="8"/>
-        <v>225200</v>
+        <v>187666.66666666663</v>
       </c>
       <c r="E278" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13234,7 +13297,7 @@
       </c>
       <c r="D280" s="5">
         <f t="shared" si="8"/>
-        <v>59400</v>
+        <v>49499.999999999985</v>
       </c>
       <c r="E280" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13274,7 +13337,7 @@
       </c>
       <c r="D281" s="5">
         <f t="shared" si="8"/>
-        <v>129200</v>
+        <v>107666.66666666664</v>
       </c>
       <c r="E281" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13314,7 +13377,7 @@
       </c>
       <c r="D282" s="5">
         <f t="shared" si="8"/>
-        <v>142800</v>
+        <v>118999.99999999997</v>
       </c>
       <c r="E282" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13354,7 +13417,7 @@
       </c>
       <c r="D283" s="5">
         <f t="shared" si="8"/>
-        <v>161400</v>
+        <v>134499.99999999997</v>
       </c>
       <c r="E283" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13394,7 +13457,7 @@
       </c>
       <c r="D284" s="5">
         <f t="shared" si="8"/>
-        <v>118200</v>
+        <v>98499.999999999971</v>
       </c>
       <c r="E284" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13434,7 +13497,7 @@
       </c>
       <c r="D285" s="5">
         <f t="shared" si="8"/>
-        <v>183600</v>
+        <v>152999.99999999997</v>
       </c>
       <c r="E285" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13474,7 +13537,7 @@
       </c>
       <c r="D286" s="5">
         <f t="shared" si="8"/>
-        <v>253000</v>
+        <v>210833.33333333328</v>
       </c>
       <c r="E286" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13514,7 +13577,7 @@
       </c>
       <c r="D287" s="5">
         <f t="shared" si="8"/>
-        <v>51200</v>
+        <v>42666.666666666657</v>
       </c>
       <c r="E287" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13554,7 +13617,7 @@
       </c>
       <c r="D288" s="5">
         <f t="shared" si="8"/>
-        <v>74200</v>
+        <v>61833.333333333321</v>
       </c>
       <c r="E288" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13594,7 +13657,7 @@
       </c>
       <c r="D289" s="5">
         <f t="shared" si="8"/>
-        <v>91400</v>
+        <v>76166.666666666657</v>
       </c>
       <c r="E289" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13634,7 +13697,7 @@
       </c>
       <c r="D290" s="5">
         <f t="shared" si="8"/>
-        <v>128400</v>
+        <v>106999.99999999997</v>
       </c>
       <c r="E290" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13674,7 +13737,7 @@
       </c>
       <c r="D291" s="5">
         <f t="shared" si="8"/>
-        <v>314200</v>
+        <v>261833.33333333328</v>
       </c>
       <c r="E291" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13714,7 +13777,7 @@
       </c>
       <c r="D292" s="5">
         <f t="shared" si="8"/>
-        <v>151200</v>
+        <v>125999.99999999997</v>
       </c>
       <c r="E292" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13754,7 +13817,7 @@
       </c>
       <c r="D293" s="5">
         <f t="shared" si="8"/>
-        <v>314200</v>
+        <v>261833.33333333328</v>
       </c>
       <c r="E293" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13794,7 +13857,7 @@
       </c>
       <c r="D294" s="5">
         <f t="shared" si="8"/>
-        <v>543200</v>
+        <v>452666.66666666657</v>
       </c>
       <c r="E294" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13834,7 +13897,7 @@
       </c>
       <c r="D295" s="5">
         <f t="shared" si="8"/>
-        <v>128000</v>
+        <v>106666.66666666664</v>
       </c>
       <c r="E295" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13874,7 +13937,7 @@
       </c>
       <c r="D296" s="5">
         <f t="shared" si="8"/>
-        <v>51000</v>
+        <v>42499.999999999993</v>
       </c>
       <c r="E296" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13914,7 +13977,7 @@
       </c>
       <c r="D297" s="5">
         <f t="shared" si="8"/>
-        <v>82600</v>
+        <v>68833.333333333314</v>
       </c>
       <c r="E297" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13954,7 +14017,7 @@
       </c>
       <c r="D298" s="5">
         <f t="shared" si="8"/>
-        <v>72200</v>
+        <v>60166.66666666665</v>
       </c>
       <c r="E298" s="17" t="str">
         <f t="shared" si="9"/>
@@ -13994,7 +14057,7 @@
       </c>
       <c r="D299" s="5">
         <f t="shared" si="8"/>
-        <v>108800</v>
+        <v>90666.666666666642</v>
       </c>
       <c r="E299" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14034,7 +14097,7 @@
       </c>
       <c r="D300" s="5">
         <f t="shared" si="8"/>
-        <v>135600</v>
+        <v>112999.99999999997</v>
       </c>
       <c r="E300" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14074,7 +14137,7 @@
       </c>
       <c r="D301" s="5">
         <f t="shared" si="8"/>
-        <v>210800</v>
+        <v>175666.66666666663</v>
       </c>
       <c r="E301" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14114,7 +14177,7 @@
       </c>
       <c r="D302" s="5">
         <f t="shared" si="8"/>
-        <v>96400</v>
+        <v>80333.333333333314</v>
       </c>
       <c r="E302" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14154,7 +14217,7 @@
       </c>
       <c r="D303" s="5">
         <f t="shared" si="8"/>
-        <v>144400</v>
+        <v>120333.3333333333</v>
       </c>
       <c r="E303" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14194,7 +14257,7 @@
       </c>
       <c r="D304" s="5">
         <f t="shared" si="8"/>
-        <v>53800</v>
+        <v>44833.333333333321</v>
       </c>
       <c r="E304" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14234,7 +14297,7 @@
       </c>
       <c r="D305" s="5">
         <f t="shared" si="8"/>
-        <v>74200</v>
+        <v>61833.333333333321</v>
       </c>
       <c r="E305" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14274,7 +14337,7 @@
       </c>
       <c r="D306" s="5">
         <f t="shared" si="8"/>
-        <v>92400</v>
+        <v>76999.999999999985</v>
       </c>
       <c r="E306" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14314,7 +14377,7 @@
       </c>
       <c r="D307" s="5">
         <f t="shared" si="8"/>
-        <v>108200</v>
+        <v>90166.666666666642</v>
       </c>
       <c r="E307" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14354,7 +14417,7 @@
       </c>
       <c r="D308" s="5">
         <f t="shared" si="8"/>
-        <v>129600</v>
+        <v>107999.99999999997</v>
       </c>
       <c r="E308" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14394,7 +14457,7 @@
       </c>
       <c r="D309" s="5">
         <f t="shared" si="8"/>
-        <v>128800</v>
+        <v>107333.33333333331</v>
       </c>
       <c r="E309" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14434,7 +14497,7 @@
       </c>
       <c r="D310" s="5">
         <f t="shared" si="8"/>
-        <v>180400</v>
+        <v>150333.33333333331</v>
       </c>
       <c r="E310" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14474,7 +14537,7 @@
       </c>
       <c r="D311" s="5">
         <f t="shared" si="8"/>
-        <v>144400</v>
+        <v>120333.3333333333</v>
       </c>
       <c r="E311" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14514,7 +14577,7 @@
       </c>
       <c r="D312" s="5">
         <f t="shared" si="8"/>
-        <v>291400</v>
+        <v>242833.33333333328</v>
       </c>
       <c r="E312" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14554,7 +14617,7 @@
       </c>
       <c r="D313" s="5">
         <f t="shared" si="8"/>
-        <v>357200</v>
+        <v>297666.66666666663</v>
       </c>
       <c r="E313" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14630,7 +14693,7 @@
       </c>
       <c r="D315" s="5">
         <f t="shared" si="8"/>
-        <v>17000</v>
+        <v>14166.666666666664</v>
       </c>
       <c r="E315" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14670,7 +14733,7 @@
       </c>
       <c r="D316" s="5">
         <f t="shared" si="8"/>
-        <v>16800</v>
+        <v>13999.999999999996</v>
       </c>
       <c r="E316" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14710,7 +14773,7 @@
       </c>
       <c r="D317" s="5">
         <f t="shared" si="8"/>
-        <v>23000</v>
+        <v>19166.666666666661</v>
       </c>
       <c r="E317" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14750,7 +14813,7 @@
       </c>
       <c r="D318" s="5">
         <f t="shared" si="8"/>
-        <v>30400</v>
+        <v>25333.333333333328</v>
       </c>
       <c r="E318" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14790,7 +14853,7 @@
       </c>
       <c r="D319" s="5">
         <f t="shared" si="8"/>
-        <v>16400</v>
+        <v>13666.666666666664</v>
       </c>
       <c r="E319" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14830,7 +14893,7 @@
       </c>
       <c r="D320" s="5">
         <f t="shared" si="8"/>
-        <v>16800</v>
+        <v>13999.999999999996</v>
       </c>
       <c r="E320" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14870,7 +14933,7 @@
       </c>
       <c r="D321" s="5">
         <f t="shared" si="8"/>
-        <v>23000</v>
+        <v>19166.666666666661</v>
       </c>
       <c r="E321" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14910,7 +14973,7 @@
       </c>
       <c r="D322" s="5">
         <f t="shared" si="8"/>
-        <v>30600</v>
+        <v>25499.999999999993</v>
       </c>
       <c r="E322" s="17" t="str">
         <f t="shared" si="9"/>
@@ -14949,8 +15012,8 @@
         <v>80000</v>
       </c>
       <c r="D323" s="5">
-        <f t="shared" ref="D323:D337" si="10">IF(C323&lt;&gt;"",C323*20%,"")</f>
-        <v>16000</v>
+        <f t="shared" ref="D323:D337" si="10">IF(C323&lt;&gt;"",C323*(1-1/(1+0.2)),"")</f>
+        <v>13333.33333333333</v>
       </c>
       <c r="E323" s="17" t="str">
         <f t="shared" ref="E323:E337" si="11">_xlfn.CONCAT(A323," ",B323)</f>
@@ -14990,7 +15053,7 @@
       </c>
       <c r="D324" s="5">
         <f t="shared" si="10"/>
-        <v>20400</v>
+        <v>16999.999999999996</v>
       </c>
       <c r="E324" s="17" t="str">
         <f t="shared" si="11"/>
@@ -15066,7 +15129,7 @@
       </c>
       <c r="D326" s="5">
         <f t="shared" si="10"/>
-        <v>39600</v>
+        <v>32999.999999999993</v>
       </c>
       <c r="E326" s="17" t="str">
         <f t="shared" si="11"/>
@@ -15106,7 +15169,7 @@
       </c>
       <c r="D327" s="5">
         <f t="shared" si="10"/>
-        <v>46600</v>
+        <v>38833.333333333321</v>
       </c>
       <c r="E327" s="17" t="str">
         <f t="shared" si="11"/>
@@ -15146,7 +15209,7 @@
       </c>
       <c r="D328" s="5">
         <f t="shared" si="10"/>
-        <v>55800</v>
+        <v>46499.999999999993</v>
       </c>
       <c r="E328" s="17" t="str">
         <f t="shared" si="11"/>
@@ -15186,7 +15249,7 @@
       </c>
       <c r="D329" s="5">
         <f t="shared" si="10"/>
-        <v>59600</v>
+        <v>49666.666666666657</v>
       </c>
       <c r="E329" s="17" t="str">
         <f t="shared" si="11"/>
@@ -15226,7 +15289,7 @@
       </c>
       <c r="D330" s="5">
         <f t="shared" si="10"/>
-        <v>95600</v>
+        <v>79666.666666666642</v>
       </c>
       <c r="E330" s="17" t="str">
         <f t="shared" si="11"/>
@@ -15266,7 +15329,7 @@
       </c>
       <c r="D331" s="5">
         <f t="shared" si="10"/>
-        <v>125200</v>
+        <v>104333.33333333331</v>
       </c>
       <c r="E331" s="17" t="str">
         <f t="shared" si="11"/>
@@ -15306,7 +15369,7 @@
       </c>
       <c r="D332" s="5">
         <f t="shared" si="10"/>
-        <v>151400</v>
+        <v>126166.66666666664</v>
       </c>
       <c r="E332" s="17" t="str">
         <f t="shared" si="11"/>
@@ -15346,7 +15409,7 @@
       </c>
       <c r="D333" s="5">
         <f t="shared" si="10"/>
-        <v>225600</v>
+        <v>187999.99999999997</v>
       </c>
       <c r="E333" s="17" t="str">
         <f t="shared" si="11"/>
@@ -15386,7 +15449,7 @@
       </c>
       <c r="D334" s="5">
         <f t="shared" si="10"/>
-        <v>305400</v>
+        <v>254499.99999999994</v>
       </c>
       <c r="E334" s="17" t="str">
         <f t="shared" si="11"/>
@@ -15426,7 +15489,7 @@
       </c>
       <c r="D335" s="5">
         <f t="shared" si="10"/>
-        <v>826800</v>
+        <v>688999.99999999988</v>
       </c>
       <c r="E335" s="17" t="str">
         <f t="shared" si="11"/>
@@ -15466,7 +15529,7 @@
       </c>
       <c r="D336" s="5">
         <f t="shared" si="10"/>
-        <v>1370000</v>
+        <v>1141666.6666666665</v>
       </c>
       <c r="E336" s="17" t="str">
         <f t="shared" si="11"/>
@@ -15506,7 +15569,7 @@
       </c>
       <c r="D337" s="5">
         <f t="shared" si="10"/>
-        <v>2342400</v>
+        <v>1951999.9999999995</v>
       </c>
       <c r="E337" s="17" t="str">
         <f t="shared" si="11"/>
@@ -34025,7 +34088,7 @@
   <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34036,8 +34099,7 @@
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="7" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="26" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -34051,14 +34113,15 @@
       <c r="C1" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="D1" s="4" t="e">
-        <f t="shared" ref="D1:D8" si="0">VLOOKUP(10,$A$2:$B$8,2,0)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="G1" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>576</v>
+      </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -34086,17 +34149,21 @@
         <v>40</v>
       </c>
       <c r="C2" s="7" t="str">
-        <f>IF(Table_1[[#This Row],[Column2]]&lt;40,"respinto",IF(AND(Table_1[[#This Row],[Column2]]&gt;=40,Table_1[[#This Row],[Column2]]&lt;60),"sufficiente",IF(AND(Table_1[[#This Row],[Column2]]&gt;=60,Table_1[[#This Row],[Column2]]&lt;70),"discreto",IF(Table_1[[#This Row],[Column2]]&gt;=70,"buono"))))</f>
+        <f>IF(Table_1[[#This Row],[Column2]]=0,"respinto",IF(Table_1[[#This Row],[Column2]]=40,"sufficiente",IF(Table_1[[#This Row],[Column2]]=60,"discreto",IF(Table_1[[#This Row],[Column2]]=70,"buono"))))</f>
         <v>sufficiente</v>
       </c>
-      <c r="D2" t="e">
-        <f>VLOOKUP(10,$A$2:$B$8,2,0)</f>
-        <v>#N/A</v>
+      <c r="D2" t="str">
+        <f>VLOOKUP(Table_1[[#This Row],[Column2]],$G$2:$H$5,2,0)</f>
+        <v>sufficiente</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>580</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -34124,17 +34191,21 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="str">
-        <f>IF(Table_1[[#This Row],[Column2]]&lt;40,"respinto",IF(AND(Table_1[[#This Row],[Column2]]&gt;=40,Table_1[[#This Row],[Column2]]&lt;60),"sufficiente",IF(AND(Table_1[[#This Row],[Column2]]&gt;=60,Table_1[[#This Row],[Column2]]&lt;70),"discreto",IF(Table_1[[#This Row],[Column2]]&gt;=70,"buono"))))</f>
+        <f>IF(Table_1[[#This Row],[Column2]]=0,"respinto",IF(Table_1[[#This Row],[Column2]]=40,"sufficiente",IF(Table_1[[#This Row],[Column2]]=60,"discreto",IF(Table_1[[#This Row],[Column2]]=70,"buono"))))</f>
         <v>discreto</v>
       </c>
-      <c r="D3" s="19" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D3" t="str">
+        <f>VLOOKUP(Table_1[[#This Row],[Column2]],$G$2:$H$5,2,0)</f>
+        <v>discreto</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="8">
+        <v>40</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>579</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -34162,17 +34233,21 @@
         <v>60</v>
       </c>
       <c r="C4" s="7" t="str">
-        <f>IF(Table_1[[#This Row],[Column2]]&lt;40,"respinto",IF(AND(Table_1[[#This Row],[Column2]]&gt;=40,Table_1[[#This Row],[Column2]]&lt;60),"sufficiente",IF(AND(Table_1[[#This Row],[Column2]]&gt;=60,Table_1[[#This Row],[Column2]]&lt;70),"discreto",IF(Table_1[[#This Row],[Column2]]&gt;=70,"buono"))))</f>
+        <f>IF(Table_1[[#This Row],[Column2]]=0,"respinto",IF(Table_1[[#This Row],[Column2]]=40,"sufficiente",IF(Table_1[[#This Row],[Column2]]=60,"discreto",IF(Table_1[[#This Row],[Column2]]=70,"buono"))))</f>
         <v>discreto</v>
       </c>
-      <c r="D4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D4" t="str">
+        <f>VLOOKUP(Table_1[[#This Row],[Column2]],$G$2:$H$5,2,0)</f>
+        <v>discreto</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="8">
+        <v>60</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>578</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -34200,17 +34275,21 @@
         <v>40</v>
       </c>
       <c r="C5" s="7" t="str">
-        <f>IF(Table_1[[#This Row],[Column2]]&lt;40,"respinto",IF(AND(Table_1[[#This Row],[Column2]]&gt;=40,Table_1[[#This Row],[Column2]]&lt;60),"sufficiente",IF(AND(Table_1[[#This Row],[Column2]]&gt;=60,Table_1[[#This Row],[Column2]]&lt;70),"discreto",IF(Table_1[[#This Row],[Column2]]&gt;=70,"buono"))))</f>
+        <f>IF(Table_1[[#This Row],[Column2]]=0,"respinto",IF(Table_1[[#This Row],[Column2]]=40,"sufficiente",IF(Table_1[[#This Row],[Column2]]=60,"discreto",IF(Table_1[[#This Row],[Column2]]=70,"buono"))))</f>
         <v>sufficiente</v>
       </c>
-      <c r="D5" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D5" t="str">
+        <f>VLOOKUP(Table_1[[#This Row],[Column2]],$G$2:$H$5,2,0)</f>
+        <v>sufficiente</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="8">
+        <v>70</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>577</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -34238,12 +34317,12 @@
         <v>70</v>
       </c>
       <c r="C6" s="7" t="str">
-        <f>IF(Table_1[[#This Row],[Column2]]&lt;40,"respinto",IF(AND(Table_1[[#This Row],[Column2]]&gt;=40,Table_1[[#This Row],[Column2]]&lt;60),"sufficiente",IF(AND(Table_1[[#This Row],[Column2]]&gt;=60,Table_1[[#This Row],[Column2]]&lt;70),"discreto",IF(Table_1[[#This Row],[Column2]]&gt;=70,"buono"))))</f>
+        <f>IF(Table_1[[#This Row],[Column2]]=0,"respinto",IF(Table_1[[#This Row],[Column2]]=40,"sufficiente",IF(Table_1[[#This Row],[Column2]]=60,"discreto",IF(Table_1[[#This Row],[Column2]]=70,"buono"))))</f>
         <v>buono</v>
       </c>
-      <c r="D6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D6" t="str">
+        <f>VLOOKUP(Table_1[[#This Row],[Column2]],$G$2:$H$5,2,0)</f>
+        <v>buono</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -34276,12 +34355,12 @@
         <v>0</v>
       </c>
       <c r="C7" s="7" t="str">
-        <f>IF(Table_1[[#This Row],[Column2]]&lt;40,"respinto",IF(AND(Table_1[[#This Row],[Column2]]&gt;=40,Table_1[[#This Row],[Column2]]&lt;60),"sufficiente",IF(AND(Table_1[[#This Row],[Column2]]&gt;=60,Table_1[[#This Row],[Column2]]&lt;70),"discreto",IF(Table_1[[#This Row],[Column2]]&gt;=70,"buono"))))</f>
+        <f>IF(Table_1[[#This Row],[Column2]]=0,"respinto",IF(Table_1[[#This Row],[Column2]]=40,"sufficiente",IF(Table_1[[#This Row],[Column2]]=60,"discreto",IF(Table_1[[#This Row],[Column2]]=70,"buono"))))</f>
         <v>respinto</v>
       </c>
-      <c r="D7" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D7" t="str">
+        <f>VLOOKUP(Table_1[[#This Row],[Column2]],$G$2:$H$5,2,0)</f>
+        <v>respinto</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -34314,12 +34393,12 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="str">
-        <f>IF(Table_1[[#This Row],[Column2]]&lt;40,"respinto",IF(AND(Table_1[[#This Row],[Column2]]&gt;=40,Table_1[[#This Row],[Column2]]&lt;60),"sufficiente",IF(AND(Table_1[[#This Row],[Column2]]&gt;=60,Table_1[[#This Row],[Column2]]&lt;70),"discreto",IF(Table_1[[#This Row],[Column2]]&gt;=70,"buono"))))</f>
+        <f>IF(Table_1[[#This Row],[Column2]]=0,"respinto",IF(Table_1[[#This Row],[Column2]]=40,"sufficiente",IF(Table_1[[#This Row],[Column2]]=60,"discreto",IF(Table_1[[#This Row],[Column2]]=70,"buono"))))</f>
         <v>respinto</v>
       </c>
-      <c r="D8" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D8" t="str">
+        <f>VLOOKUP(Table_1[[#This Row],[Column2]],$G$2:$H$5,2,0)</f>
+        <v>respinto</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -61931,7 +62010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -61941,8 +62022,9 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="24" width="8.7109375" customWidth="1"/>
+    <col min="7" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="19" customWidth="1"/>
+    <col min="10" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -61962,9 +62044,15 @@
         <v>497</v>
       </c>
       <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="G1" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -61997,6 +62085,17 @@
       <c r="E2" s="14">
         <v>16</v>
       </c>
+      <c r="G2" t="s">
+        <v>499</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H6" si="0">COUNTIF($C$2:$C$80,G2)</f>
+        <v>11</v>
+      </c>
+      <c r="I2" s="19">
+        <f>SUMIF($C$2:$C$80,G2,$D$2:$D$80)</f>
+        <v>611780</v>
+      </c>
     </row>
     <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
@@ -62014,6 +62113,17 @@
       <c r="E3" s="14">
         <v>29</v>
       </c>
+      <c r="G3" t="s">
+        <v>558</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I3" s="19">
+        <f t="shared" ref="I3:I5" si="1">SUMIF($C$2:$C$80,G3,$D$2:$D$80)</f>
+        <v>30860</v>
+      </c>
     </row>
     <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
@@ -62031,6 +62141,17 @@
       <c r="E4" s="14">
         <v>21</v>
       </c>
+      <c r="G4" t="s">
+        <v>506</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I4" s="19">
+        <f t="shared" si="1"/>
+        <v>54000</v>
+      </c>
     </row>
     <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
@@ -62048,6 +62169,17 @@
       <c r="E5" s="14">
         <v>29</v>
       </c>
+      <c r="G5" t="s">
+        <v>547</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" si="1"/>
+        <v>6765600</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
@@ -62066,7 +62198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>36547</v>
       </c>
@@ -62082,6 +62214,11 @@
       <c r="E7" s="14">
         <v>22</v>
       </c>
+      <c r="G7" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
@@ -62099,6 +62236,17 @@
       <c r="E8" s="14">
         <v>21</v>
       </c>
+      <c r="G8" t="s">
+        <v>501</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIF($B$2:$B$80,G8)</f>
+        <v>2</v>
+      </c>
+      <c r="I8" s="19">
+        <f>SUMIF($B$2:$B$80,G8,$D$2:$D$80)</f>
+        <v>73450</v>
+      </c>
     </row>
     <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
@@ -62116,6 +62264,17 @@
       <c r="E9" s="14">
         <v>18</v>
       </c>
+      <c r="G9" t="s">
+        <v>507</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H14" si="2">COUNTIF($B$2:$B$80,G9)</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
+        <f t="shared" ref="I9:I14" si="3">SUMIF($B$2:$B$80,G9,$D$2:$D$80)</f>
+        <v>50800</v>
+      </c>
     </row>
     <row r="10" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
@@ -62133,6 +62292,17 @@
       <c r="E10" s="14">
         <v>23</v>
       </c>
+      <c r="G10" t="s">
+        <v>509</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="3"/>
+        <v>98450</v>
+      </c>
     </row>
     <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
@@ -62150,6 +62320,17 @@
       <c r="E11" s="14">
         <v>24</v>
       </c>
+      <c r="G11" t="s">
+        <v>511</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <f t="shared" si="3"/>
+        <v>7950</v>
+      </c>
     </row>
     <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
@@ -62167,6 +62348,17 @@
       <c r="E12" s="14">
         <v>27</v>
       </c>
+      <c r="G12" t="s">
+        <v>525</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="3"/>
+        <v>283000</v>
+      </c>
     </row>
     <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
@@ -62184,6 +62376,17 @@
       <c r="E13" s="14">
         <v>15</v>
       </c>
+      <c r="G13" t="s">
+        <v>528</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="3"/>
+        <v>107700</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
@@ -62200,6 +62403,17 @@
       </c>
       <c r="E14" s="14">
         <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>529</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="19">
+        <f t="shared" si="3"/>
+        <v>27270</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/01 LEZIONE PRATICA W1D1/ESERCIZIO_M2-1-1_dati.xlsx
+++ b/01 LEZIONE PRATICA W1D1/ESERCIZIO_M2-1-1_dati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lavoro\EPICODE\Esercitazioni\EPICODE_EXCEL_DATP0724\01 LEZIONE PRATICA W1D1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DFA075-A1FE-49C6-ABA9-74BB69B93BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E993A515-9D68-455B-82EA-40E67DCD7672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16335" yWindow="600" windowWidth="21960" windowHeight="15060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16365" yWindow="750" windowWidth="21960" windowHeight="15060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="1" r:id="rId1"/>
@@ -1820,7 +1820,7 @@
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1894,6 +1894,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1936,7 +1943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1970,6 +1977,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -34087,7 +34095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -62010,8 +62018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -62089,12 +62097,12 @@
         <v>499</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H6" si="0">COUNTIF($C$2:$C$80,G2)</f>
+        <f t="shared" ref="H2:H5" si="0">COUNTIF($C$2:$C$80,G2)</f>
         <v>11</v>
       </c>
       <c r="I2" s="19">
-        <f>SUMIF($C$2:$C$80,G2,$D$2:$D$80)</f>
-        <v>611780</v>
+        <f>SUMIF($C$2:$C$80,G2,$D$2:$D$80)+SUMIF($C$2:$C$80,G2,$E$2:$E$80)</f>
+        <v>611998</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -62121,8 +62129,8 @@
         <v>5</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I5" si="1">SUMIF($C$2:$C$80,G3,$D$2:$D$80)</f>
-        <v>30860</v>
+        <f t="shared" ref="I3:I5" si="1">SUMIF($C$2:$C$80,G3,$D$2:$D$80)+SUMIF($C$2:$C$80,G3,$E$2:$E$80)</f>
+        <v>30962</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -62150,7 +62158,7 @@
       </c>
       <c r="I4" s="19">
         <f t="shared" si="1"/>
-        <v>54000</v>
+        <v>54074</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -62178,7 +62186,7 @@
       </c>
       <c r="I5" s="19">
         <f t="shared" si="1"/>
-        <v>6765600</v>
+        <v>6765662</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -62244,8 +62252,8 @@
         <v>2</v>
       </c>
       <c r="I8" s="19">
-        <f>SUMIF($B$2:$B$80,G8,$D$2:$D$80)</f>
-        <v>73450</v>
+        <f>SUMIF($B$2:$B$80,G8,$D$2:$D$80)+SUMIF($B$2:$B$80,G8,$E$2:$E$80)</f>
+        <v>73489</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -62272,8 +62280,8 @@
         <v>1</v>
       </c>
       <c r="I9" s="19">
-        <f t="shared" ref="I9:I14" si="3">SUMIF($B$2:$B$80,G9,$D$2:$D$80)</f>
-        <v>50800</v>
+        <f t="shared" ref="I9:I14" si="3">SUMIF($B$2:$B$80,G9,$D$2:$D$80)+SUMIF($B$2:$B$80,G9,$E$2:$E$80)</f>
+        <v>50822</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -62301,7 +62309,7 @@
       </c>
       <c r="I10" s="19">
         <f t="shared" si="3"/>
-        <v>98450</v>
+        <v>98471</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -62329,7 +62337,7 @@
       </c>
       <c r="I11" s="19">
         <f t="shared" si="3"/>
-        <v>7950</v>
+        <v>7973</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -62357,7 +62365,7 @@
       </c>
       <c r="I12" s="19">
         <f t="shared" si="3"/>
-        <v>283000</v>
+        <v>283071</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -62385,7 +62393,7 @@
       </c>
       <c r="I13" s="19">
         <f t="shared" si="3"/>
-        <v>107700</v>
+        <v>107734</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -62413,7 +62421,7 @@
       </c>
       <c r="I14" s="19">
         <f t="shared" si="3"/>
-        <v>27270</v>
+        <v>27284</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -62450,7 +62458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>36573</v>
       </c>
@@ -62467,7 +62475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>36576</v>
       </c>
@@ -62484,7 +62492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>36580</v>
       </c>
@@ -62501,7 +62509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>36589</v>
       </c>
@@ -62518,7 +62526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>36593</v>
       </c>
@@ -62535,7 +62543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>36594</v>
       </c>
@@ -62551,8 +62559,9 @@
       <c r="E22" s="14">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>36594</v>
       </c>
@@ -62569,7 +62578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>36594</v>
       </c>
@@ -62586,7 +62595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>36595</v>
       </c>
@@ -62603,7 +62612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>36595</v>
       </c>
@@ -62620,7 +62629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>36595</v>
       </c>
@@ -62637,7 +62646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>36595</v>
       </c>
@@ -62654,7 +62663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>36596</v>
       </c>
@@ -62671,7 +62680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>36596</v>
       </c>
@@ -62688,7 +62697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>36596</v>
       </c>
@@ -62705,7 +62714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>36596</v>
       </c>
